--- a/paper/lw_graphs.xlsx
+++ b/paper/lw_graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="860" yWindow="0" windowWidth="38400" windowHeight="20080" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="6 months" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>one</t>
   </si>
@@ -72,17 +72,17 @@
     <t>Entire History</t>
   </si>
   <si>
-    <t>Git Training Data</t>
+    <t>Original Training Data</t>
   </si>
   <si>
-    <t>Original Training Data</t>
+    <t>scipy Training Data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -99,6 +99,22 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,15 +134,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -238,25 +262,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>62.7</c:v>
+                  <c:v>60.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.6</c:v>
+                  <c:v>49.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.3</c:v>
+                  <c:v>69.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.1</c:v>
+                  <c:v>70.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.4</c:v>
+                  <c:v>50.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68.6</c:v>
+                  <c:v>65.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.3</c:v>
+                  <c:v>50.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>66.5</c:v>
@@ -360,28 +384,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>75.8</c:v>
+                  <c:v>74.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73.8</c:v>
+                  <c:v>69.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.2</c:v>
+                  <c:v>86.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.3</c:v>
+                  <c:v>91.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69.7</c:v>
+                  <c:v>68.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82.9</c:v>
+                  <c:v>75.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66.7</c:v>
+                  <c:v>74.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81.4</c:v>
+                  <c:v>80.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -584,10 +608,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>76.2</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.0</c:v>
+                  <c:v>70.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>86.3</c:v>
@@ -596,16 +620,16 @@
                   <c:v>92.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69.6</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83.3</c:v>
+                  <c:v>81.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67.3</c:v>
+                  <c:v>69.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81.0</c:v>
+                  <c:v>80.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -620,11 +644,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2124063336"/>
-        <c:axId val="-2124075768"/>
+        <c:axId val="2089555608"/>
+        <c:axId val="-2114764088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2124063336"/>
+        <c:axId val="2089555608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -643,7 +667,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124075768"/>
+        <c:crossAx val="-2114764088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -651,7 +675,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124075768"/>
+        <c:axId val="-2114764088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -691,7 +715,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124063336"/>
+        <c:crossAx val="2089555608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -958,13 +982,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>75.7</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70.9</c:v>
+                  <c:v>70.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.1</c:v>
+                  <c:v>86.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>92.1</c:v>
@@ -1218,11 +1242,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2114073736"/>
-        <c:axId val="-2119577192"/>
+        <c:axId val="-2114879800"/>
+        <c:axId val="-2114876632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2114073736"/>
+        <c:axId val="-2114879800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,7 +1265,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2119577192"/>
+        <c:crossAx val="-2114876632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1249,7 +1273,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2119577192"/>
+        <c:axId val="-2114876632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1289,7 +1313,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114073736"/>
+        <c:crossAx val="-2114879800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1397,9 +1421,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'dTime (2)'!$A$2:$A$8</c:f>
+              <c:f>'dTime (2)'!$A$2:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>one</c:v>
                 </c:pt>
@@ -1407,18 +1431,21 @@
                   <c:v>cyclus</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>git</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>jedit</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>jquery</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>puppet</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>scala</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>scipy</c:v>
                 </c:pt>
               </c:strCache>
@@ -1437,19 +1464,19 @@
                   <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>86.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>92.1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>69.6</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>83.3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>67.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>81.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1464,7 +1491,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Git Training Data</c:v>
+                  <c:v>scipy Training Data</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1513,9 +1540,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'dTime (2)'!$A$2:$A$8</c:f>
+              <c:f>'dTime (2)'!$A$2:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>one</c:v>
                 </c:pt>
@@ -1523,18 +1550,21 @@
                   <c:v>cyclus</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>git</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>jedit</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>jquery</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>puppet</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>scala</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>scipy</c:v>
                 </c:pt>
               </c:strCache>
@@ -1547,25 +1577,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>76.1</c:v>
+                  <c:v>75.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70.0</c:v>
+                  <c:v>75.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.3</c:v>
+                  <c:v>84.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.9</c:v>
+                  <c:v>87.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82.4</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73.5</c:v>
+                  <c:v>81.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.0</c:v>
+                  <c:v>74.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1580,11 +1610,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2121188792"/>
-        <c:axId val="-2121202376"/>
+        <c:axId val="-2118857752"/>
+        <c:axId val="2090814360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2121188792"/>
+        <c:axId val="-2118857752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1603,7 +1633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121202376"/>
+        <c:crossAx val="2090814360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1611,7 +1641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2121202376"/>
+        <c:axId val="2090814360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1651,7 +1681,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121188792"/>
+        <c:crossAx val="-2118857752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1696,16 +1726,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>677334</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>626534</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2125,8 +2155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2150,16 +2180,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>62.7</v>
+        <v>60.7</v>
       </c>
       <c r="C2" s="2">
-        <v>75.8</v>
+        <v>74.8</v>
       </c>
       <c r="D2" s="2">
         <v>76.599999999999994</v>
       </c>
       <c r="E2" s="2">
-        <v>76.2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2167,16 +2197,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>53.6</v>
+        <v>49.2</v>
       </c>
       <c r="C3" s="2">
-        <v>73.8</v>
+        <v>69.05</v>
       </c>
       <c r="D3" s="2">
         <v>64.099999999999994</v>
       </c>
       <c r="E3" s="2">
-        <v>74</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2184,10 +2214,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>70.3</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="C4" s="2">
-        <v>86.2</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2">
         <v>86.1</v>
@@ -2201,10 +2231,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>81.099999999999994</v>
+        <v>70.5</v>
       </c>
       <c r="C5" s="2">
-        <v>93.3</v>
+        <v>91.5</v>
       </c>
       <c r="D5" s="2">
         <v>93.3</v>
@@ -2218,16 +2248,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>51.4</v>
+        <v>50.9</v>
       </c>
       <c r="C6" s="2">
-        <v>69.7</v>
+        <v>68.8</v>
       </c>
       <c r="D6" s="2">
         <v>64.099999999999994</v>
       </c>
       <c r="E6" s="2">
-        <v>69.599999999999994</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2235,16 +2265,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>68.599999999999994</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="C7" s="2">
-        <v>82.9</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="D7" s="2">
         <v>81.3</v>
       </c>
       <c r="E7" s="2">
-        <v>83.3</v>
+        <v>81.7</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2252,16 +2282,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>51.3</v>
+        <v>50.3</v>
       </c>
       <c r="C8" s="2">
-        <v>66.7</v>
+        <v>74.3</v>
       </c>
       <c r="D8" s="2">
         <v>66.400000000000006</v>
       </c>
       <c r="E8" s="2">
-        <v>67.3</v>
+        <v>69.900000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2272,17 +2302,18 @@
         <v>66.5</v>
       </c>
       <c r="C9" s="2">
-        <v>81.400000000000006</v>
+        <v>80.8</v>
       </c>
       <c r="D9" s="2">
         <v>81.2</v>
       </c>
       <c r="E9" s="2">
-        <v>81</v>
+        <v>80.900000000000006</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2296,8 +2327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2324,7 +2355,7 @@
         <v>76.2</v>
       </c>
       <c r="C2" s="2">
-        <v>75.7</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2">
         <v>74.5</v>
@@ -2341,7 +2372,7 @@
         <v>74</v>
       </c>
       <c r="C3" s="2">
-        <v>70.900000000000006</v>
+        <v>70.3</v>
       </c>
       <c r="D3" s="2">
         <v>71.400000000000006</v>
@@ -2358,7 +2389,7 @@
         <v>86.3</v>
       </c>
       <c r="C4" s="2">
-        <v>86.1</v>
+        <v>86.3</v>
       </c>
       <c r="D4" s="2">
         <v>85.9</v>
@@ -2468,17 +2499,17 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2489,7 +2520,7 @@
         <v>76.2</v>
       </c>
       <c r="C2" s="2">
-        <v>76.099999999999994</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2502,77 +2533,80 @@
         <v>74</v>
       </c>
       <c r="C3" s="2">
-        <v>70</v>
+        <v>75.5</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>92.1</v>
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>86.3</v>
       </c>
       <c r="C4" s="2">
-        <v>93.3</v>
+        <v>84.4</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>69.599999999999994</v>
+        <v>92.1</v>
       </c>
       <c r="C5" s="2">
-        <v>64.900000000000006</v>
+        <v>87.3</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>83.3</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="C6" s="2">
-        <v>82.4</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>67.3</v>
+        <v>83.3</v>
       </c>
       <c r="C7" s="2">
-        <v>73.5</v>
+        <v>81.3</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>81</v>
+        <v>67.3</v>
       </c>
       <c r="C8" s="2">
-        <v>81</v>
+        <v>74.8</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>

--- a/paper/lw_graphs.xlsx
+++ b/paper/lw_graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13540" yWindow="0" windowWidth="22300" windowHeight="20080" tabRatio="500" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="13540" yWindow="0" windowWidth="22300" windowHeight="20080" tabRatio="500" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="6 months" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="33">
   <si>
     <t>one</t>
   </si>
@@ -132,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,6 +167,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -191,7 +199,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="103">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -295,14 +303,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="103">
+  <cellStyles count="115">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -354,6 +375,12 @@
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -405,6 +432,12 @@
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1409,7 +1442,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0024330900243309</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0048780487804878</c:v>
@@ -1448,7 +1481,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0</c:v>
@@ -1528,7 +1561,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Time!$T$2:$T$11</c:f>
+              <c:f>Time!$X$2:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1567,7 +1600,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Time!$U$2:$U$11</c:f>
+              <c:f>Time!$Y$2:$Y$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1796,7 +1829,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Time!$N$2:$N$12</c:f>
+              <c:f>Time!$P$2:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1838,7 +1871,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Time!$O$2:$O$12</c:f>
+              <c:f>Time!$Q$2:$Q$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1893,7 +1926,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Time!$V$2:$V$12</c:f>
+              <c:f>Time!$Z$2:$Z$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1935,7 +1968,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Time!$W$2:$W$12</c:f>
+              <c:f>Time!$AA$2:$AA$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1990,12 +2023,12 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Time!$AD$2:$AD$13</c:f>
+              <c:f>Time!$AJ$2:$AJ$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0024330900243309</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0170731707317073</c:v>
@@ -2032,12 +2065,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Time!$AE$2:$AE$12</c:f>
+              <c:f>Time!$AK$2:$AK$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.388888888888889</c:v>
@@ -6034,16 +6067,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7094,7 +7127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -8079,7 +8112,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8906,7 +8939,7 @@
   <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9849,6 +9882,10 @@
       <c r="G14">
         <f>$B$14/($B$14+$C$14)</f>
         <v>0.29285714285714287</v>
+      </c>
+      <c r="H14">
+        <f>2*F14*G14/(F14+G14)</f>
+        <v>0.36689038031319915</v>
       </c>
     </row>
   </sheetData>
@@ -9867,8 +9904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10872,8 +10909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:E14"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11796,15 +11833,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AN30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2:AN13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:40">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -11830,84 +11867,108 @@
         <v>26</v>
       </c>
       <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AF1" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AG1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AH1" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AI1" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AJ1" t="s">
         <v>19</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AK1" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AL1" t="s">
         <v>26</v>
       </c>
+      <c r="AM1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:40">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -11920,99 +11981,131 @@
       </c>
       <c r="F2">
         <f>B2/(B2+E2)</f>
-        <v>0</v>
+        <v>2.4330900243309003E-3</v>
       </c>
       <c r="G2">
         <f>B2/(B2+C2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <f>2*F2*G2/(F2+G2)</f>
+        <v>4.8426150121065378E-3</v>
+      </c>
+      <c r="I2">
+        <f>B2/(B2+E2)</f>
+        <v>2.4330900243309003E-3</v>
+      </c>
+      <c r="J2">
+        <f>C2/(D2+C2)</f>
+        <v>5.5991041433370661E-4</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3">
         <v>0</v>
       </c>
-      <c r="H2" t="e">
-        <f>2*F2*G2/(F2+G2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I2">
+      <c r="N2" s="3">
+        <v>1785</v>
+      </c>
+      <c r="O2" s="3">
+        <v>409</v>
+      </c>
+      <c r="P2">
+        <f>L2/(L2+O2)</f>
+        <v>2.4390243902439024E-3</v>
+      </c>
+      <c r="Q2">
+        <f>L2/(L2+M2)</f>
         <v>1</v>
       </c>
-      <c r="J2" s="3">
+      <c r="R2">
+        <f>2*P2*Q2/(P2+Q2)</f>
+        <v>4.8661800486618006E-3</v>
+      </c>
+      <c r="S2">
+        <f>L2/(L2+O2)</f>
+        <v>2.4390243902439024E-3</v>
+      </c>
+      <c r="T2">
+        <f>M2/(N2+M2)</f>
+        <v>0</v>
+      </c>
+      <c r="U2">
         <v>1</v>
       </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>1785</v>
-      </c>
-      <c r="M2" s="3">
-        <v>409</v>
-      </c>
-      <c r="N2">
-        <f>J2/(J2+M2)</f>
-        <v>2.4390243902439024E-3</v>
-      </c>
-      <c r="O2">
-        <f>J2/(J2+K2)</f>
+      <c r="V2" s="3">
+        <v>3</v>
+      </c>
+      <c r="W2" s="3">
         <v>1</v>
       </c>
-      <c r="P2">
-        <f>2*N2*O2/(N2+O2)</f>
-        <v>4.8661800486618006E-3</v>
-      </c>
-      <c r="Q2">
+      <c r="X2" s="3">
+        <v>1784</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>407</v>
+      </c>
+      <c r="Z2">
+        <f>V2/(V2+Y2)</f>
+        <v>7.3170731707317077E-3</v>
+      </c>
+      <c r="AA2">
+        <f>V2/(V2+W2)</f>
+        <v>0.75</v>
+      </c>
+      <c r="AB2">
+        <f>2*Z2*AA2/(Z2+AA2)</f>
+        <v>1.4492753623188408E-2</v>
+      </c>
+      <c r="AC2">
+        <f>V2/(V2+Y2)</f>
+        <v>7.3170731707317077E-3</v>
+      </c>
+      <c r="AD2">
+        <f>W2/(X2+W2)</f>
+        <v>5.602240896358543E-4</v>
+      </c>
+      <c r="AE2">
         <v>1</v>
       </c>
-      <c r="R2" s="3">
-        <v>3</v>
-      </c>
-      <c r="S2" s="3">
+      <c r="AF2">
         <v>1</v>
       </c>
-      <c r="T2" s="3">
-        <v>1784</v>
-      </c>
-      <c r="U2" s="3">
-        <v>407</v>
-      </c>
-      <c r="V2">
-        <f>R2/(R2+U2)</f>
-        <v>7.3170731707317077E-3</v>
-      </c>
-      <c r="W2">
-        <f>R2/(R2+S2)</f>
-        <v>0.75</v>
-      </c>
-      <c r="X2">
-        <f>2*V2*W2/(V2+W2)</f>
-        <v>1.4492753623188408E-2</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
+      <c r="AG2">
         <v>2</v>
       </c>
-      <c r="AB2">
+      <c r="AH2">
         <v>1783</v>
       </c>
-      <c r="AC2">
+      <c r="AI2">
         <v>410</v>
       </c>
-      <c r="AD2">
-        <f>Z2/(Z2+AC2)</f>
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <f>Z2/(Z2+AA2)</f>
-        <v>0</v>
-      </c>
-      <c r="AF2" t="e">
-        <f>2*AD2*AE2/(AD2+AE2)</f>
-        <v>#DIV/0!</v>
+      <c r="AJ2">
+        <f>AF2/(AF2+AI2)</f>
+        <v>2.4330900243309003E-3</v>
+      </c>
+      <c r="AK2">
+        <f>AF2/(AF2+AG2)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AL2">
+        <f>2*AJ2*AK2/(AJ2+AK2)</f>
+        <v>4.8309178743961359E-3</v>
+      </c>
+      <c r="AM2">
+        <f>AF2/(AF2+AI2)</f>
+        <v>2.4330900243309003E-3</v>
+      </c>
+      <c r="AN2">
+        <f>AG2/(AH2+AG2)</f>
+        <v>1.1204481792717086E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:40">
       <c r="A3">
         <v>0.9</v>
       </c>
@@ -12041,88 +12134,120 @@
         <v>9.7087378640776691E-3</v>
       </c>
       <c r="I3">
+        <f t="shared" ref="I3:I13" si="2">B3/(B3+E3)</f>
+        <v>4.8780487804878049E-3</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J13" si="3">C3/(D3+C3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>0.9</v>
       </c>
-      <c r="J3" s="3">
+      <c r="L3" s="3">
         <v>9</v>
       </c>
-      <c r="K3" s="3">
+      <c r="M3" s="3">
         <v>3</v>
       </c>
-      <c r="L3" s="3">
+      <c r="N3" s="3">
         <v>1782</v>
       </c>
-      <c r="M3" s="3">
+      <c r="O3" s="3">
         <v>401</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N12" si="2">J3/(J3+M3)</f>
+      <c r="P3">
+        <f t="shared" ref="P3:P12" si="4">L3/(L3+O3)</f>
         <v>2.1951219512195121E-2</v>
       </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O12" si="3">J3/(J3+K3)</f>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q12" si="5">L3/(L3+M3)</f>
         <v>0.75</v>
       </c>
-      <c r="P3">
-        <f>2*N3*O3/(N3+O3)</f>
+      <c r="R3">
+        <f>2*P3*Q3/(P3+Q3)</f>
         <v>4.2654028436018961E-2</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
+        <f t="shared" ref="S3:S13" si="6">L3/(L3+O3)</f>
+        <v>2.1951219512195121E-2</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T13" si="7">M3/(N3+M3)</f>
+        <v>1.6806722689075631E-3</v>
+      </c>
+      <c r="U3">
         <v>0.9</v>
       </c>
-      <c r="R3" s="3">
+      <c r="V3" s="3">
         <v>28</v>
       </c>
-      <c r="S3" s="3">
+      <c r="W3" s="3">
         <v>13</v>
       </c>
-      <c r="T3" s="3">
+      <c r="X3" s="3">
         <v>1772</v>
       </c>
-      <c r="U3" s="3">
+      <c r="Y3" s="3">
         <v>382</v>
       </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V12" si="4">R3/(R3+U3)</f>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z12" si="8">V3/(V3+Y3)</f>
         <v>6.8292682926829273E-2</v>
       </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W12" si="5">R3/(R3+S3)</f>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA12" si="9">V3/(V3+W3)</f>
         <v>0.68292682926829273</v>
       </c>
-      <c r="X3">
-        <f>2*V3*W3/(V3+W3)</f>
+      <c r="AB3">
+        <f>2*Z3*AA3/(Z3+AA3)</f>
         <v>0.12416851441241687</v>
       </c>
-      <c r="Y3">
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC13" si="10">V3/(V3+Y3)</f>
+        <v>6.8292682926829273E-2</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD13" si="11">W3/(X3+W3)</f>
+        <v>7.2829131652661066E-3</v>
+      </c>
+      <c r="AE3">
         <v>0.9</v>
       </c>
-      <c r="Z3">
+      <c r="AF3">
         <v>7</v>
       </c>
-      <c r="AA3">
+      <c r="AG3">
         <v>11</v>
       </c>
-      <c r="AB3">
+      <c r="AH3">
         <v>1774</v>
       </c>
-      <c r="AC3">
+      <c r="AI3">
         <v>403</v>
       </c>
-      <c r="AD3">
-        <f t="shared" ref="AD3:AD12" si="6">Z3/(Z3+AC3)</f>
+      <c r="AJ3">
+        <f t="shared" ref="AJ3:AJ12" si="12">AF3/(AF3+AI3)</f>
         <v>1.7073170731707318E-2</v>
       </c>
-      <c r="AE3">
-        <f t="shared" ref="AE3:AE12" si="7">Z3/(Z3+AA3)</f>
+      <c r="AK3">
+        <f t="shared" ref="AK3:AK12" si="13">AF3/(AF3+AG3)</f>
         <v>0.3888888888888889</v>
       </c>
-      <c r="AF3">
-        <f>2*AD3*AE3/(AD3+AE3)</f>
+      <c r="AL3">
+        <f>2*AJ3*AK3/(AJ3+AK3)</f>
         <v>3.2710280373831772E-2</v>
       </c>
+      <c r="AM3">
+        <f t="shared" ref="AM3:AM13" si="14">AF3/(AF3+AI3)</f>
+        <v>1.7073170731707318E-2</v>
+      </c>
+      <c r="AN3">
+        <f t="shared" ref="AN3:AN13" si="15">AG3/(AH3+AG3)</f>
+        <v>6.1624649859943975E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:40">
       <c r="A4">
         <v>0.8</v>
       </c>
@@ -12147,92 +12272,124 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H13" si="8">2*F4*G4/(F4+G4)</f>
+        <f t="shared" ref="H4:H13" si="16">2*F4*G4/(F4+G4)</f>
         <v>2.386634844868735E-2</v>
       </c>
       <c r="I4">
+        <f t="shared" si="2"/>
+        <v>1.2195121951219513E-2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>2.2408963585434172E-3</v>
+      </c>
+      <c r="K4">
         <v>0.8</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>20</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>17</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>1768</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>390</v>
       </c>
-      <c r="N4">
-        <f t="shared" si="2"/>
+      <c r="P4">
+        <f t="shared" si="4"/>
         <v>4.878048780487805E-2</v>
       </c>
-      <c r="O4">
-        <f t="shared" si="3"/>
+      <c r="Q4">
+        <f t="shared" si="5"/>
         <v>0.54054054054054057</v>
       </c>
-      <c r="P4">
-        <f t="shared" ref="P4:P12" si="9">2*N4*O4/(N4+O4)</f>
+      <c r="R4">
+        <f t="shared" ref="R4:R12" si="17">2*P4*Q4/(P4+Q4)</f>
         <v>8.9485458612975396E-2</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
+        <f t="shared" si="6"/>
+        <v>4.878048780487805E-2</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="7"/>
+        <v>9.5238095238095247E-3</v>
+      </c>
+      <c r="U4">
         <v>0.8</v>
       </c>
-      <c r="R4" s="3">
+      <c r="V4" s="3">
         <v>54</v>
       </c>
-      <c r="S4" s="3">
+      <c r="W4" s="3">
         <v>35</v>
       </c>
-      <c r="T4" s="3">
+      <c r="X4" s="3">
         <v>1750</v>
       </c>
-      <c r="U4" s="3">
+      <c r="Y4" s="3">
         <v>356</v>
       </c>
-      <c r="V4">
-        <f t="shared" si="4"/>
+      <c r="Z4">
+        <f t="shared" si="8"/>
         <v>0.13170731707317074</v>
       </c>
-      <c r="W4">
-        <f t="shared" si="5"/>
+      <c r="AA4">
+        <f t="shared" si="9"/>
         <v>0.6067415730337079</v>
       </c>
-      <c r="X4">
-        <f t="shared" ref="X4:X12" si="10">2*V4*W4/(V4+W4)</f>
+      <c r="AB4">
+        <f t="shared" ref="AB4:AB12" si="18">2*Z4*AA4/(Z4+AA4)</f>
         <v>0.21643286573146295</v>
       </c>
-      <c r="Y4">
+      <c r="AC4">
+        <f t="shared" si="10"/>
+        <v>0.13170731707317074</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="11"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="AE4">
         <v>0.8</v>
       </c>
-      <c r="Z4">
+      <c r="AF4">
         <v>48</v>
       </c>
-      <c r="AA4">
+      <c r="AG4">
         <v>59</v>
       </c>
-      <c r="AB4">
+      <c r="AH4">
         <v>1726</v>
       </c>
-      <c r="AC4">
+      <c r="AI4">
         <v>362</v>
       </c>
-      <c r="AD4">
-        <f t="shared" si="6"/>
+      <c r="AJ4">
+        <f t="shared" si="12"/>
         <v>0.11707317073170732</v>
       </c>
-      <c r="AE4">
-        <f t="shared" si="7"/>
+      <c r="AK4">
+        <f t="shared" si="13"/>
         <v>0.44859813084112149</v>
       </c>
-      <c r="AF4">
-        <f t="shared" ref="AF4:AF12" si="11">2*AD4*AE4/(AD4+AE4)</f>
+      <c r="AL4">
+        <f t="shared" ref="AL4:AL12" si="19">2*AJ4*AK4/(AJ4+AK4)</f>
         <v>0.18568665377176016</v>
       </c>
+      <c r="AM4">
+        <f t="shared" si="14"/>
+        <v>0.11707317073170732</v>
+      </c>
+      <c r="AN4">
+        <f t="shared" si="15"/>
+        <v>3.3053221288515407E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:40">
       <c r="A5">
         <v>0.7</v>
       </c>
@@ -12249,100 +12406,132 @@
         <v>393</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F13" si="12">B5/(B5+E5)</f>
+        <f t="shared" ref="F5:F13" si="20">B5/(B5+E5)</f>
         <v>4.1463414634146344E-2</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G13" si="13">B5/(B5+C5)</f>
+        <f t="shared" ref="G5:G13" si="21">B5/(B5+C5)</f>
         <v>0.68</v>
       </c>
       <c r="H5">
+        <f t="shared" si="16"/>
+        <v>7.8160919540229884E-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>4.1463414634146344E-2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>4.4817927170868344E-3</v>
+      </c>
+      <c r="K5">
+        <v>0.7</v>
+      </c>
+      <c r="L5">
+        <v>56</v>
+      </c>
+      <c r="M5">
+        <v>36</v>
+      </c>
+      <c r="N5">
+        <v>1749</v>
+      </c>
+      <c r="O5">
+        <v>354</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="4"/>
+        <v>0.13658536585365855</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="5"/>
+        <v>0.60869565217391308</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="17"/>
+        <v>0.22310756972111556</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="6"/>
+        <v>0.13658536585365855</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="7"/>
+        <v>2.0168067226890758E-2</v>
+      </c>
+      <c r="U5">
+        <v>0.7</v>
+      </c>
+      <c r="V5" s="3">
+        <v>86</v>
+      </c>
+      <c r="W5" s="3">
+        <v>64</v>
+      </c>
+      <c r="X5" s="3">
+        <v>1721</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>324</v>
+      </c>
+      <c r="Z5">
         <f t="shared" si="8"/>
-        <v>7.8160919540229884E-2</v>
-      </c>
-      <c r="I5">
+        <v>0.2097560975609756</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="9"/>
+        <v>0.57333333333333336</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="18"/>
+        <v>0.30714285714285716</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="10"/>
+        <v>0.2097560975609756</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="11"/>
+        <v>3.5854341736694675E-2</v>
+      </c>
+      <c r="AE5">
         <v>0.7</v>
       </c>
-      <c r="J5">
-        <v>56</v>
-      </c>
-      <c r="K5">
-        <v>36</v>
-      </c>
-      <c r="L5">
-        <v>1749</v>
-      </c>
-      <c r="M5">
-        <v>354</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="2"/>
-        <v>0.13658536585365855</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="3"/>
-        <v>0.60869565217391308</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="9"/>
-        <v>0.22310756972111556</v>
-      </c>
-      <c r="Q5">
-        <v>0.7</v>
-      </c>
-      <c r="R5" s="3">
-        <v>86</v>
-      </c>
-      <c r="S5" s="3">
-        <v>64</v>
-      </c>
-      <c r="T5" s="3">
-        <v>1721</v>
-      </c>
-      <c r="U5" s="3">
-        <v>324</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="4"/>
-        <v>0.2097560975609756</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="5"/>
-        <v>0.57333333333333336</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="10"/>
-        <v>0.30714285714285716</v>
-      </c>
-      <c r="Y5">
-        <v>0.7</v>
-      </c>
-      <c r="Z5">
+      <c r="AF5">
         <v>115</v>
       </c>
-      <c r="AA5">
+      <c r="AG5">
         <v>120</v>
       </c>
-      <c r="AB5">
+      <c r="AH5">
         <v>1665</v>
       </c>
-      <c r="AC5">
+      <c r="AI5">
         <v>295</v>
       </c>
-      <c r="AD5">
-        <f t="shared" si="6"/>
+      <c r="AJ5">
+        <f t="shared" si="12"/>
         <v>0.28048780487804881</v>
       </c>
-      <c r="AE5">
-        <f t="shared" si="7"/>
+      <c r="AK5">
+        <f t="shared" si="13"/>
         <v>0.48936170212765956</v>
       </c>
-      <c r="AF5">
-        <f t="shared" si="11"/>
+      <c r="AL5">
+        <f t="shared" si="19"/>
         <v>0.35658914728682173</v>
       </c>
+      <c r="AM5">
+        <f t="shared" si="14"/>
+        <v>0.28048780487804881</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="15"/>
+        <v>6.7226890756302518E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:40">
       <c r="A6">
         <v>0.6</v>
       </c>
@@ -12359,100 +12548,132 @@
         <v>337</v>
       </c>
       <c r="F6">
+        <f t="shared" si="20"/>
+        <v>0.17804878048780487</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="21"/>
+        <v>0.72277227722772275</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="16"/>
+        <v>0.28571428571428575</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0.17804878048780487</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>1.5686274509803921E-2</v>
+      </c>
+      <c r="K6">
+        <v>0.6</v>
+      </c>
+      <c r="L6">
+        <v>110</v>
+      </c>
+      <c r="M6">
+        <v>90</v>
+      </c>
+      <c r="N6">
+        <v>1695</v>
+      </c>
+      <c r="O6">
+        <v>300</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>0.26829268292682928</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="17"/>
+        <v>0.36065573770491804</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="6"/>
+        <v>0.26829268292682928</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="7"/>
+        <v>5.0420168067226892E-2</v>
+      </c>
+      <c r="U6">
+        <v>0.6</v>
+      </c>
+      <c r="V6" s="3">
+        <v>138</v>
+      </c>
+      <c r="W6" s="3">
+        <v>124</v>
+      </c>
+      <c r="X6" s="3">
+        <v>1661</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>272</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="8"/>
+        <v>0.33658536585365856</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="9"/>
+        <v>0.52671755725190839</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="18"/>
+        <v>0.41071428571428575</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="10"/>
+        <v>0.33658536585365856</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="11"/>
+        <v>6.9467787114845941E-2</v>
+      </c>
+      <c r="AE6">
+        <v>0.6</v>
+      </c>
+      <c r="AF6">
+        <v>176</v>
+      </c>
+      <c r="AG6">
+        <v>215</v>
+      </c>
+      <c r="AH6">
+        <v>1570</v>
+      </c>
+      <c r="AI6">
+        <v>234</v>
+      </c>
+      <c r="AJ6">
         <f t="shared" si="12"/>
-        <v>0.17804878048780487</v>
-      </c>
-      <c r="G6">
+        <v>0.42926829268292682</v>
+      </c>
+      <c r="AK6">
         <f t="shared" si="13"/>
-        <v>0.72277227722772275</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="8"/>
-        <v>0.28571428571428575</v>
-      </c>
-      <c r="I6">
-        <v>0.6</v>
-      </c>
-      <c r="J6">
-        <v>110</v>
-      </c>
-      <c r="K6">
-        <v>90</v>
-      </c>
-      <c r="L6">
-        <v>1695</v>
-      </c>
-      <c r="M6">
-        <v>300</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="2"/>
-        <v>0.26829268292682928</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="3"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="9"/>
-        <v>0.36065573770491804</v>
-      </c>
-      <c r="Q6">
-        <v>0.6</v>
-      </c>
-      <c r="R6" s="3">
-        <v>138</v>
-      </c>
-      <c r="S6" s="3">
-        <v>124</v>
-      </c>
-      <c r="T6" s="3">
-        <v>1661</v>
-      </c>
-      <c r="U6" s="3">
-        <v>272</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="4"/>
-        <v>0.33658536585365856</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="5"/>
-        <v>0.52671755725190839</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="10"/>
-        <v>0.41071428571428575</v>
-      </c>
-      <c r="Y6">
-        <v>0.6</v>
-      </c>
-      <c r="Z6">
-        <v>176</v>
-      </c>
-      <c r="AA6">
-        <v>215</v>
-      </c>
-      <c r="AB6">
-        <v>1570</v>
-      </c>
-      <c r="AC6">
-        <v>234</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" si="6"/>
+        <v>0.45012787723785164</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" si="19"/>
+        <v>0.43945068664169784</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" si="14"/>
         <v>0.42926829268292682</v>
       </c>
-      <c r="AE6">
-        <f t="shared" si="7"/>
-        <v>0.45012787723785164</v>
-      </c>
-      <c r="AF6">
-        <f t="shared" si="11"/>
-        <v>0.43945068664169784</v>
+      <c r="AN6">
+        <f t="shared" si="15"/>
+        <v>0.12044817927170869</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:40">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -12469,100 +12690,132 @@
         <v>327</v>
       </c>
       <c r="F7">
+        <f t="shared" si="20"/>
+        <v>0.20243902439024392</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="21"/>
+        <v>0.65873015873015872</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="16"/>
+        <v>0.30970149253731344</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0.20243902439024392</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>2.4089635854341738E-2</v>
+      </c>
+      <c r="K7">
+        <v>0.5</v>
+      </c>
+      <c r="L7">
+        <v>134</v>
+      </c>
+      <c r="M7">
+        <v>120</v>
+      </c>
+      <c r="N7">
+        <v>1665</v>
+      </c>
+      <c r="O7">
+        <v>276</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>0.32682926829268294</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>0.52755905511811019</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="17"/>
+        <v>0.40361445783132527</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="6"/>
+        <v>0.32682926829268294</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="7"/>
+        <v>6.7226890756302518E-2</v>
+      </c>
+      <c r="U7">
+        <v>0.5</v>
+      </c>
+      <c r="V7" s="3">
+        <v>155</v>
+      </c>
+      <c r="W7" s="3">
+        <v>150</v>
+      </c>
+      <c r="X7" s="3">
+        <v>1635</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>255</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="8"/>
+        <v>0.37804878048780488</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="9"/>
+        <v>0.50819672131147542</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="18"/>
+        <v>0.4335664335664336</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="10"/>
+        <v>0.37804878048780488</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="11"/>
+        <v>8.4033613445378158E-2</v>
+      </c>
+      <c r="AE7">
+        <v>0.5</v>
+      </c>
+      <c r="AF7">
+        <v>200</v>
+      </c>
+      <c r="AG7">
+        <v>275</v>
+      </c>
+      <c r="AH7">
+        <v>1510</v>
+      </c>
+      <c r="AI7">
+        <v>210</v>
+      </c>
+      <c r="AJ7">
         <f t="shared" si="12"/>
-        <v>0.20243902439024392</v>
-      </c>
-      <c r="G7">
+        <v>0.48780487804878048</v>
+      </c>
+      <c r="AK7">
         <f t="shared" si="13"/>
-        <v>0.65873015873015872</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="8"/>
-        <v>0.30970149253731344</v>
-      </c>
-      <c r="I7">
-        <v>0.5</v>
-      </c>
-      <c r="J7">
-        <v>134</v>
-      </c>
-      <c r="K7">
-        <v>120</v>
-      </c>
-      <c r="L7">
-        <v>1665</v>
-      </c>
-      <c r="M7">
-        <v>276</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="2"/>
-        <v>0.32682926829268294</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="3"/>
-        <v>0.52755905511811019</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="9"/>
-        <v>0.40361445783132527</v>
-      </c>
-      <c r="Q7">
-        <v>0.5</v>
-      </c>
-      <c r="R7" s="3">
-        <v>155</v>
-      </c>
-      <c r="S7" s="3">
-        <v>150</v>
-      </c>
-      <c r="T7" s="3">
-        <v>1635</v>
-      </c>
-      <c r="U7" s="3">
-        <v>255</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="4"/>
-        <v>0.37804878048780488</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="5"/>
-        <v>0.50819672131147542</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="10"/>
-        <v>0.4335664335664336</v>
-      </c>
-      <c r="Y7">
-        <v>0.5</v>
-      </c>
-      <c r="Z7">
-        <v>200</v>
-      </c>
-      <c r="AA7">
-        <v>275</v>
-      </c>
-      <c r="AB7">
-        <v>1510</v>
-      </c>
-      <c r="AC7">
-        <v>210</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" si="6"/>
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="19"/>
+        <v>0.4519774011299435</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="14"/>
         <v>0.48780487804878048</v>
       </c>
-      <c r="AE7">
-        <f t="shared" si="7"/>
-        <v>0.42105263157894735</v>
-      </c>
-      <c r="AF7">
-        <f t="shared" si="11"/>
-        <v>0.4519774011299435</v>
+      <c r="AN7">
+        <f t="shared" si="15"/>
+        <v>0.15406162464985995</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:40">
       <c r="A8">
         <v>0.4</v>
       </c>
@@ -12579,100 +12832,132 @@
         <v>321</v>
       </c>
       <c r="F8">
+        <f t="shared" si="20"/>
+        <v>0.21707317073170732</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="21"/>
+        <v>0.57792207792207795</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="16"/>
+        <v>0.31560283687943264</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0.21707317073170732</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>3.6414565826330535E-2</v>
+      </c>
+      <c r="K8">
+        <v>0.4</v>
+      </c>
+      <c r="L8">
+        <v>163</v>
+      </c>
+      <c r="M8">
+        <v>188</v>
+      </c>
+      <c r="N8">
+        <v>1597</v>
+      </c>
+      <c r="O8">
+        <v>247</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>0.39756097560975612</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>0.46438746438746437</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="17"/>
+        <v>0.42838370565045997</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="6"/>
+        <v>0.39756097560975612</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="7"/>
+        <v>0.10532212885154062</v>
+      </c>
+      <c r="U8">
+        <v>0.4</v>
+      </c>
+      <c r="V8" s="3">
+        <v>172</v>
+      </c>
+      <c r="W8" s="3">
+        <v>208</v>
+      </c>
+      <c r="X8" s="3">
+        <v>1577</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>238</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="8"/>
+        <v>0.4195121951219512</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="9"/>
+        <v>0.45263157894736844</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="18"/>
+        <v>0.43544303797468353</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="10"/>
+        <v>0.4195121951219512</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="11"/>
+        <v>0.11652661064425771</v>
+      </c>
+      <c r="AE8">
+        <v>0.4</v>
+      </c>
+      <c r="AF8">
+        <v>214</v>
+      </c>
+      <c r="AG8">
+        <v>313</v>
+      </c>
+      <c r="AH8">
+        <v>1472</v>
+      </c>
+      <c r="AI8">
+        <v>196</v>
+      </c>
+      <c r="AJ8">
         <f t="shared" si="12"/>
-        <v>0.21707317073170732</v>
-      </c>
-      <c r="G8">
+        <v>0.52195121951219514</v>
+      </c>
+      <c r="AK8">
         <f t="shared" si="13"/>
-        <v>0.57792207792207795</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="8"/>
-        <v>0.31560283687943264</v>
-      </c>
-      <c r="I8">
-        <v>0.4</v>
-      </c>
-      <c r="J8">
-        <v>163</v>
-      </c>
-      <c r="K8">
-        <v>188</v>
-      </c>
-      <c r="L8">
-        <v>1597</v>
-      </c>
-      <c r="M8">
-        <v>247</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="2"/>
-        <v>0.39756097560975612</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="3"/>
-        <v>0.46438746438746437</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="9"/>
-        <v>0.42838370565045997</v>
-      </c>
-      <c r="Q8">
-        <v>0.4</v>
-      </c>
-      <c r="R8" s="3">
-        <v>172</v>
-      </c>
-      <c r="S8" s="3">
-        <v>208</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1577</v>
-      </c>
-      <c r="U8" s="3">
-        <v>238</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="4"/>
-        <v>0.4195121951219512</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="5"/>
-        <v>0.45263157894736844</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="10"/>
-        <v>0.43544303797468353</v>
-      </c>
-      <c r="Y8">
-        <v>0.4</v>
-      </c>
-      <c r="Z8">
-        <v>214</v>
-      </c>
-      <c r="AA8">
-        <v>313</v>
-      </c>
-      <c r="AB8">
-        <v>1472</v>
-      </c>
-      <c r="AC8">
-        <v>196</v>
-      </c>
-      <c r="AD8">
-        <f t="shared" si="6"/>
+        <v>0.40607210626185958</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="19"/>
+        <v>0.45677694770544292</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="14"/>
         <v>0.52195121951219514</v>
       </c>
-      <c r="AE8">
-        <f t="shared" si="7"/>
-        <v>0.40607210626185958</v>
-      </c>
-      <c r="AF8">
-        <f t="shared" si="11"/>
-        <v>0.45677694770544292</v>
+      <c r="AN8">
+        <f t="shared" si="15"/>
+        <v>0.1753501400560224</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:40">
       <c r="A9">
         <v>0.3</v>
       </c>
@@ -12689,100 +12974,132 @@
         <v>281</v>
       </c>
       <c r="F9">
+        <f t="shared" si="20"/>
+        <v>0.31463414634146342</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="21"/>
+        <v>0.50588235294117645</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="16"/>
+        <v>0.38796992481203002</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0.31463414634146342</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>7.0588235294117646E-2</v>
+      </c>
+      <c r="K9">
+        <v>0.3</v>
+      </c>
+      <c r="L9">
+        <v>213</v>
+      </c>
+      <c r="M9">
+        <v>300</v>
+      </c>
+      <c r="N9">
+        <v>1485</v>
+      </c>
+      <c r="O9">
+        <v>197</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>0.51951219512195124</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>0.41520467836257308</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="17"/>
+        <v>0.46153846153846151</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="6"/>
+        <v>0.51951219512195124</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="7"/>
+        <v>0.16806722689075632</v>
+      </c>
+      <c r="U9">
+        <v>0.3</v>
+      </c>
+      <c r="V9" s="3">
+        <v>216</v>
+      </c>
+      <c r="W9" s="3">
+        <v>324</v>
+      </c>
+      <c r="X9" s="3">
+        <v>1461</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>194</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="8"/>
+        <v>0.52682926829268295</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="9"/>
+        <v>0.4</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="18"/>
+        <v>0.45473684210526316</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="10"/>
+        <v>0.52682926829268295</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="11"/>
+        <v>0.1815126050420168</v>
+      </c>
+      <c r="AE9">
+        <v>0.3</v>
+      </c>
+      <c r="AF9">
+        <v>231</v>
+      </c>
+      <c r="AG9">
+        <v>397</v>
+      </c>
+      <c r="AH9">
+        <v>1388</v>
+      </c>
+      <c r="AI9">
+        <v>179</v>
+      </c>
+      <c r="AJ9">
         <f t="shared" si="12"/>
-        <v>0.31463414634146342</v>
-      </c>
-      <c r="G9">
+        <v>0.56341463414634141</v>
+      </c>
+      <c r="AK9">
         <f t="shared" si="13"/>
-        <v>0.50588235294117645</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="8"/>
-        <v>0.38796992481203002</v>
-      </c>
-      <c r="I9">
-        <v>0.3</v>
-      </c>
-      <c r="J9">
-        <v>213</v>
-      </c>
-      <c r="K9">
-        <v>300</v>
-      </c>
-      <c r="L9">
-        <v>1485</v>
-      </c>
-      <c r="M9">
-        <v>197</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="2"/>
-        <v>0.51951219512195124</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="3"/>
-        <v>0.41520467836257308</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="9"/>
-        <v>0.46153846153846151</v>
-      </c>
-      <c r="Q9">
-        <v>0.3</v>
-      </c>
-      <c r="R9" s="3">
-        <v>216</v>
-      </c>
-      <c r="S9" s="3">
-        <v>324</v>
-      </c>
-      <c r="T9" s="3">
-        <v>1461</v>
-      </c>
-      <c r="U9" s="3">
-        <v>194</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="4"/>
-        <v>0.52682926829268295</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="5"/>
-        <v>0.4</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="10"/>
-        <v>0.45473684210526316</v>
-      </c>
-      <c r="Y9">
-        <v>0.3</v>
-      </c>
-      <c r="Z9">
-        <v>231</v>
-      </c>
-      <c r="AA9">
-        <v>397</v>
-      </c>
-      <c r="AB9">
-        <v>1388</v>
-      </c>
-      <c r="AC9">
-        <v>179</v>
-      </c>
-      <c r="AD9">
-        <f t="shared" si="6"/>
+        <v>0.36783439490445857</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="19"/>
+        <v>0.44508670520231208</v>
+      </c>
+      <c r="AM9">
+        <f t="shared" si="14"/>
         <v>0.56341463414634141</v>
       </c>
-      <c r="AE9">
-        <f t="shared" si="7"/>
-        <v>0.36783439490445857</v>
-      </c>
-      <c r="AF9">
-        <f t="shared" si="11"/>
-        <v>0.44508670520231208</v>
+      <c r="AN9">
+        <f t="shared" si="15"/>
+        <v>0.22240896358543416</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:40">
       <c r="A10">
         <v>0.2</v>
       </c>
@@ -12799,100 +13116,132 @@
         <v>251</v>
       </c>
       <c r="F10">
+        <f t="shared" si="20"/>
+        <v>0.3878048780487805</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="21"/>
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="16"/>
+        <v>0.41298701298701296</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0.3878048780487805</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0.11260504201680673</v>
+      </c>
+      <c r="K10">
+        <v>0.2</v>
+      </c>
+      <c r="L10">
+        <v>221</v>
+      </c>
+      <c r="M10">
+        <v>340</v>
+      </c>
+      <c r="N10">
+        <v>1445</v>
+      </c>
+      <c r="O10">
+        <v>189</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>0.53902439024390247</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>0.39393939393939392</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="17"/>
+        <v>0.4552008238928939</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="6"/>
+        <v>0.53902439024390247</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="7"/>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="U10">
+        <v>0.2</v>
+      </c>
+      <c r="V10" s="3">
+        <v>222</v>
+      </c>
+      <c r="W10" s="3">
+        <v>349</v>
+      </c>
+      <c r="X10" s="3">
+        <v>1436</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>188</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="8"/>
+        <v>0.54146341463414638</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="9"/>
+        <v>0.38879159369527144</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="18"/>
+        <v>0.45259938837920488</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="10"/>
+        <v>0.54146341463414638</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="11"/>
+        <v>0.19551820728291316</v>
+      </c>
+      <c r="AE10">
+        <v>0.2</v>
+      </c>
+      <c r="AF10">
+        <v>238</v>
+      </c>
+      <c r="AG10">
+        <v>461</v>
+      </c>
+      <c r="AH10">
+        <v>1324</v>
+      </c>
+      <c r="AI10">
+        <v>172</v>
+      </c>
+      <c r="AJ10">
         <f t="shared" si="12"/>
-        <v>0.3878048780487805</v>
-      </c>
-      <c r="G10">
+        <v>0.58048780487804874</v>
+      </c>
+      <c r="AK10">
         <f t="shared" si="13"/>
-        <v>0.44166666666666665</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="8"/>
-        <v>0.41298701298701296</v>
-      </c>
-      <c r="I10">
-        <v>0.2</v>
-      </c>
-      <c r="J10">
-        <v>221</v>
-      </c>
-      <c r="K10">
-        <v>340</v>
-      </c>
-      <c r="L10">
-        <v>1445</v>
-      </c>
-      <c r="M10">
-        <v>189</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="2"/>
-        <v>0.53902439024390247</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="3"/>
-        <v>0.39393939393939392</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="9"/>
-        <v>0.4552008238928939</v>
-      </c>
-      <c r="Q10">
-        <v>0.2</v>
-      </c>
-      <c r="R10" s="3">
-        <v>222</v>
-      </c>
-      <c r="S10" s="3">
-        <v>349</v>
-      </c>
-      <c r="T10" s="3">
-        <v>1436</v>
-      </c>
-      <c r="U10" s="3">
-        <v>188</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="4"/>
-        <v>0.54146341463414638</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="5"/>
-        <v>0.38879159369527144</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="10"/>
-        <v>0.45259938837920488</v>
-      </c>
-      <c r="Y10">
-        <v>0.2</v>
-      </c>
-      <c r="Z10">
-        <v>238</v>
-      </c>
-      <c r="AA10">
-        <v>461</v>
-      </c>
-      <c r="AB10">
-        <v>1324</v>
-      </c>
-      <c r="AC10">
-        <v>172</v>
-      </c>
-      <c r="AD10">
-        <f t="shared" si="6"/>
+        <v>0.34048640915593703</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="19"/>
+        <v>0.42921550946798909</v>
+      </c>
+      <c r="AM10">
+        <f t="shared" si="14"/>
         <v>0.58048780487804874</v>
       </c>
-      <c r="AE10">
-        <f t="shared" si="7"/>
-        <v>0.34048640915593703</v>
-      </c>
-      <c r="AF10">
-        <f t="shared" si="11"/>
-        <v>0.42921550946798909</v>
+      <c r="AN10">
+        <f t="shared" si="15"/>
+        <v>0.25826330532212888</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:40">
       <c r="A11">
         <v>0.1</v>
       </c>
@@ -12909,100 +13258,132 @@
         <v>210</v>
       </c>
       <c r="F11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.48780487804878048</v>
       </c>
       <c r="G11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.40567951318458417</v>
       </c>
       <c r="H11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.44296788482834992</v>
       </c>
       <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0.48780487804878048</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>0.16414565826330532</v>
+      </c>
+      <c r="K11">
         <v>0.1</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>235</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>397</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>1388</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>175</v>
       </c>
-      <c r="N11">
-        <f t="shared" si="2"/>
-        <v>0.57317073170731703</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="3"/>
-        <v>0.37183544303797467</v>
-      </c>
       <c r="P11">
-        <f t="shared" si="9"/>
-        <v>0.45105566218809973</v>
-      </c>
-      <c r="Q11">
-        <v>0.1</v>
-      </c>
-      <c r="R11" s="3">
-        <v>235</v>
-      </c>
-      <c r="S11" s="3">
-        <v>405</v>
-      </c>
-      <c r="T11" s="3">
-        <v>1380</v>
-      </c>
-      <c r="U11" s="3">
-        <v>175</v>
-      </c>
-      <c r="V11">
         <f t="shared" si="4"/>
         <v>0.57317073170731703</v>
       </c>
-      <c r="W11">
+      <c r="Q11">
         <f t="shared" si="5"/>
+        <v>0.37183544303797467</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="17"/>
+        <v>0.45105566218809973</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="6"/>
+        <v>0.57317073170731703</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="7"/>
+        <v>0.22240896358543416</v>
+      </c>
+      <c r="U11">
+        <v>0.1</v>
+      </c>
+      <c r="V11" s="3">
+        <v>235</v>
+      </c>
+      <c r="W11" s="3">
+        <v>405</v>
+      </c>
+      <c r="X11" s="3">
+        <v>1380</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>175</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="8"/>
+        <v>0.57317073170731703</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="9"/>
         <v>0.3671875</v>
       </c>
-      <c r="X11">
+      <c r="AB11">
+        <f t="shared" si="18"/>
+        <v>0.44761904761904764</v>
+      </c>
+      <c r="AC11">
         <f t="shared" si="10"/>
-        <v>0.44761904761904764</v>
-      </c>
-      <c r="Y11">
+        <v>0.57317073170731703</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="11"/>
+        <v>0.22689075630252101</v>
+      </c>
+      <c r="AE11">
         <v>0.1</v>
       </c>
-      <c r="Z11">
+      <c r="AF11">
         <v>262</v>
       </c>
-      <c r="AA11">
+      <c r="AG11">
         <v>577</v>
       </c>
-      <c r="AB11">
+      <c r="AH11">
         <v>1208</v>
       </c>
-      <c r="AC11">
+      <c r="AI11">
         <v>148</v>
       </c>
-      <c r="AD11">
-        <f t="shared" si="6"/>
+      <c r="AJ11">
+        <f t="shared" si="12"/>
         <v>0.63902439024390245</v>
       </c>
-      <c r="AE11">
-        <f t="shared" si="7"/>
+      <c r="AK11">
+        <f t="shared" si="13"/>
         <v>0.31227651966626935</v>
       </c>
-      <c r="AF11">
-        <f t="shared" si="11"/>
+      <c r="AL11">
+        <f t="shared" si="19"/>
         <v>0.41953562850280224</v>
       </c>
+      <c r="AM11">
+        <f t="shared" si="14"/>
+        <v>0.63902439024390245</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="15"/>
+        <v>0.32324929971988797</v>
+      </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:40">
       <c r="A12">
         <v>0</v>
       </c>
@@ -13019,115 +13400,153 @@
         <v>0</v>
       </c>
       <c r="F12">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="21"/>
+        <v>0.18678815489749431</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="16"/>
+        <v>0.31477927063339733</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>410</v>
+      </c>
+      <c r="M12">
+        <v>1785</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>0.18678815489749431</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="17"/>
+        <v>0.31477927063339733</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
+        <v>410</v>
+      </c>
+      <c r="W12" s="3">
+        <v>1785</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="9"/>
+        <v>0.18678815489749431</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="18"/>
+        <v>0.31477927063339733</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>410</v>
+      </c>
+      <c r="AG12">
+        <v>1785</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="G12">
+      <c r="AK12">
         <f t="shared" si="13"/>
         <v>0.18678815489749431</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="8"/>
+      <c r="AL12">
+        <f t="shared" si="19"/>
         <v>0.31477927063339733</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>410</v>
-      </c>
-      <c r="K12">
-        <v>1785</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="2"/>
+      <c r="AM12">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="O12">
-        <f t="shared" si="3"/>
-        <v>0.18678815489749431</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="9"/>
-        <v>0.31477927063339733</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3">
-        <v>410</v>
-      </c>
-      <c r="S12" s="3">
-        <v>1785</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="4"/>
+      <c r="AN12">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="W12">
-        <f t="shared" si="5"/>
-        <v>0.18678815489749431</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="10"/>
-        <v>0.31477927063339733</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>410</v>
-      </c>
-      <c r="AA12">
-        <v>1785</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AE12">
-        <f t="shared" si="7"/>
-        <v>0.18678815489749431</v>
-      </c>
-      <c r="AF12">
-        <f t="shared" si="11"/>
-        <v>0.31477927063339733</v>
-      </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:40">
       <c r="A13" s="3"/>
       <c r="F13" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G13" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="I13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -13136,16 +13555,39 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
+      <c r="S13" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T13" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
+      <c r="AC13" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD13" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM13" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN13" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:40">
       <c r="A14" s="3"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -13167,7 +13609,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:40">
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -13186,7 +13628,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:40">
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>

--- a/paper/lw_graphs.xlsx
+++ b/paper/lw_graphs.xlsx
@@ -2227,6 +2227,564 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0664914698162729"/>
+          <c:y val="0.0509259259259259"/>
+          <c:w val="0.675358267716535"/>
+          <c:h val="0.822469378827647"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>6 Months</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Time!$J$2:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.000559910414333706</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00224089635854342</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00448179271708683</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0156862745098039</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0240896358543417</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0364145658263305</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0705882352941176</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.112605042016807</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.164145658263305</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Time!$I$2:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0024330900243309</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0048780487804878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0121951219512195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0414634146341463</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.178048780487805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.202439024390244</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.217073170731707</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.314634146341463</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.38780487804878</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48780487804878</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1 Year</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Time!$T$2:$T$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00168067226890756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00952380952380952</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0201680672268908</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0504201680672269</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0672268907563025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.105322128851541</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.168067226890756</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19047619047619</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.222408963585434</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Time!$S$2:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0024390243902439</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0219512195121951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.048780487804878</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.136585365853659</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.268292682926829</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.326829268292683</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.397560975609756</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.519512195121951</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.539024390243902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.573170731707317</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2 Years</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Time!$AD$2:$AD$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.000560224089635854</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0072829131652661</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0196078431372549</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0358543417366947</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0694677871148459</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0840336134453781</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.116526610644258</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.181512605042017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.195518207282913</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.226890756302521</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Time!$AC$2:$AC$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.00731707317073171</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0682926829268293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.131707317073171</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.209756097560976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.336585365853659</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.378048780487805</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.419512195121951</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.526829268292683</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.541463414634146</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.573170731707317</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>All Time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Time!$AN$2:$AN$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.00112044817927171</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0061624649859944</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0330532212885154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0672268907563025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.120448179271709</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15406162464986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.175350140056022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.222408963585434</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.258263305322129</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.323249299719888</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Time!$AM$2:$AM$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0024330900243309</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0170731707317073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.117073170731707</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.280487804878049</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.429268292682927</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48780487804878</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.521951219512195</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.563414634146341</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.580487804878049</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.639024390243902</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Random</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2102720440"/>
+        <c:axId val="-2097041192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2102720440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>False Positive Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2097041192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2097041192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>True</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                  <a:t> Positive Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2102720440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -6302,6 +6860,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8111,7 +8701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
@@ -11835,7 +12425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="AM2" sqref="AM2:AN13"/>
     </sheetView>
   </sheetViews>
